--- a/resources/experiment 1/predictions/single/LinearRegression/upto time/Infarto de Miocardio (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/upto time/Infarto de Miocardio (UPTO).xlsx
@@ -629,7 +629,7 @@
         <v>2.60325999943744</v>
       </c>
       <c r="T2" t="n">
-        <v>0.07777697631880681</v>
+        <v>0.0777769763188068</v>
       </c>
       <c r="U2" t="n">
         <v>6.319910249921233</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.22544525342883</v>
+        <v>-4.225445253428829</v>
       </c>
       <c r="E3" t="n">
         <v>-0.1930300773997491</v>
@@ -673,25 +673,25 @@
         <v>-11.27266057652871</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.905486044354951</v>
+        <v>-5.905486044354952</v>
       </c>
       <c r="H3" t="n">
         <v>-0.4059996568933761</v>
       </c>
       <c r="I3" t="n">
-        <v>-12.88124781736342</v>
+        <v>-12.88124781736341</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.9357703882074198</v>
+        <v>-0.935770388207418</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.08407802170373208</v>
+        <v>-0.08407802170373213</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.400730634925424</v>
+        <v>-1.400730634925416</v>
       </c>
       <c r="M3" t="n">
-        <v>6.030260495500636</v>
+        <v>6.030260495500637</v>
       </c>
       <c r="N3" t="n">
         <v>0.3092738856925403</v>
@@ -703,7 +703,7 @@
         <v>6.536435944129693</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3408589831926249</v>
+        <v>0.340858983192625</v>
       </c>
       <c r="R3" t="n">
         <v>13.66572840820304</v>
@@ -721,13 +721,13 @@
         <v>2.704751634806692</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05707962438563615</v>
+        <v>0.05707962438563616</v>
       </c>
       <c r="X3" t="n">
         <v>6.155096989886018</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.5970611020902906</v>
+        <v>0.5970611020902907</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>-0.1451074706408347</v>
       </c>
       <c r="F4" t="n">
-        <v>-8.586233788318404</v>
+        <v>-8.586233788318403</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.08425470335625</v>
+        <v>-5.084254703356248</v>
       </c>
       <c r="H4" t="n">
         <v>-0.3397454400846163</v>
@@ -765,16 +765,16 @@
         <v>-11.15784897018372</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.05421010892958389</v>
+        <v>-0.054210108929583</v>
       </c>
       <c r="K4" t="n">
         <v>-0.06240306031174991</v>
       </c>
       <c r="L4" t="n">
-        <v>0.756831447563993</v>
+        <v>0.7568314475639966</v>
       </c>
       <c r="M4" t="n">
-        <v>7.038218787038665</v>
+        <v>7.038218787038666</v>
       </c>
       <c r="N4" t="n">
         <v>0.3530467669299616</v>
@@ -789,7 +789,7 @@
         <v>0.3263463081641269</v>
       </c>
       <c r="R4" t="n">
-        <v>14.32760287399946</v>
+        <v>14.32760287399945</v>
       </c>
       <c r="S4" t="n">
         <v>4.714565521823284</v>
@@ -804,13 +804,13 @@
         <v>2.495024010431517</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04440409173532403</v>
+        <v>0.04440409173532402</v>
       </c>
       <c r="X4" t="n">
         <v>5.783731833953413</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5370347038229675</v>
+        <v>0.5370347038229676</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>-4.691227708662275</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.501369525422238</v>
+        <v>-1.501369525422239</v>
       </c>
       <c r="H5" t="n">
         <v>-0.1484585183686324</v>
@@ -848,19 +848,19 @@
         <v>-3.041754041497221</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7602288345993031</v>
+        <v>0.7602288345993049</v>
       </c>
       <c r="K5" t="n">
         <v>0.01520714038048759</v>
       </c>
       <c r="L5" t="n">
-        <v>1.850411159104349</v>
+        <v>1.85041115910435</v>
       </c>
       <c r="M5" t="n">
-        <v>3.420081986975295</v>
+        <v>3.420081986975296</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1553690711094571</v>
+        <v>0.1553690711094572</v>
       </c>
       <c r="O5" t="n">
         <v>7.463457657212999</v>
@@ -887,7 +887,7 @@
         <v>2.211020341040088</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04434990955773986</v>
+        <v>0.04434990955773987</v>
       </c>
       <c r="X5" t="n">
         <v>5.038685739994945</v>
@@ -916,13 +916,13 @@
         <v>1.006931289435064</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02593689598557394</v>
+        <v>0.02593689598557395</v>
       </c>
       <c r="F6" t="n">
-        <v>2.601562029195707</v>
+        <v>2.601562029195708</v>
       </c>
       <c r="G6" t="n">
-        <v>2.701695092267486</v>
+        <v>2.701695092267487</v>
       </c>
       <c r="H6" t="n">
         <v>0.1309463283531854</v>
@@ -937,7 +937,7 @@
         <v>0.175061702040803</v>
       </c>
       <c r="L6" t="n">
-        <v>8.784552077870979</v>
+        <v>8.78455207787098</v>
       </c>
       <c r="M6" t="n">
         <v>4.283682256530744</v>
@@ -958,10 +958,10 @@
         <v>8.692849537892748</v>
       </c>
       <c r="S6" t="n">
-        <v>2.869830681993262</v>
+        <v>2.869830681993261</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0864597261944542</v>
+        <v>0.08645972619445419</v>
       </c>
       <c r="U6" t="n">
         <v>6.503161559744608</v>
@@ -1002,10 +1002,10 @@
         <v>-0.02905381483693996</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.805504564740417</v>
+        <v>-1.805504564740418</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7766431665260902</v>
+        <v>0.7766431665260907</v>
       </c>
       <c r="H7" t="n">
         <v>0.04820725907712259</v>
@@ -1023,7 +1023,7 @@
         <v>12.16657478129018</v>
       </c>
       <c r="M7" t="n">
-        <v>9.266247543196954</v>
+        <v>9.266247543196952</v>
       </c>
       <c r="N7" t="n">
         <v>0.4844461969352746</v>
@@ -1088,16 +1088,16 @@
         <v>1.537145336680055</v>
       </c>
       <c r="G8" t="n">
-        <v>2.935141299732432</v>
+        <v>2.935141299732433</v>
       </c>
       <c r="H8" t="n">
         <v>0.2388310885755689</v>
       </c>
       <c r="I8" t="n">
-        <v>7.138122086480763</v>
+        <v>7.138122086480764</v>
       </c>
       <c r="J8" t="n">
-        <v>9.242782387205658</v>
+        <v>9.242782387205656</v>
       </c>
       <c r="K8" t="n">
         <v>0.5127813690489864</v>
@@ -1109,10 +1109,10 @@
         <v>15.06148878583792</v>
       </c>
       <c r="N8" t="n">
-        <v>0.805820003402633</v>
+        <v>0.8058200034026329</v>
       </c>
       <c r="O8" t="n">
-        <v>34.95798888990412</v>
+        <v>34.95798888990413</v>
       </c>
       <c r="P8" t="n">
         <v>8.525991220855527</v>
@@ -1136,13 +1136,13 @@
         <v>1.27964073313794</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01733924001142161</v>
+        <v>0.0173392400114216</v>
       </c>
       <c r="X8" t="n">
         <v>3.840780844444802</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1806200584217946</v>
+        <v>0.1806200584217945</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5561756872608083</v>
+        <v>-0.5561756872608088</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.03802194100203969</v>
+        <v>-0.03802194100203968</v>
       </c>
       <c r="F9" t="n">
         <v>-1.603007919734738</v>
@@ -1180,16 +1180,16 @@
         <v>2.045090791390228</v>
       </c>
       <c r="J9" t="n">
-        <v>3.345999535573499</v>
+        <v>3.3459995355735</v>
       </c>
       <c r="K9" t="n">
         <v>0.1699938262215206</v>
       </c>
       <c r="L9" t="n">
-        <v>7.821278418704705</v>
+        <v>7.821278418704706</v>
       </c>
       <c r="M9" t="n">
-        <v>5.690620137954788</v>
+        <v>5.690620137954789</v>
       </c>
       <c r="N9" t="n">
         <v>0.2814314303765951</v>
@@ -1207,7 +1207,7 @@
         <v>10.82504843526002</v>
       </c>
       <c r="S9" t="n">
-        <v>3.479392809204384</v>
+        <v>3.479392809204385</v>
       </c>
       <c r="T9" t="n">
         <v>0.1267819849695709</v>
@@ -1219,13 +1219,13 @@
         <v>1.858067748429909</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03522618026455836</v>
+        <v>0.03522618026455837</v>
       </c>
       <c r="X9" t="n">
         <v>4.468746244450689</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.4029730761141587</v>
+        <v>0.4029730761141588</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0.07096361073825555</v>
       </c>
       <c r="F10" t="n">
-        <v>3.457081498117429</v>
+        <v>3.457081498117428</v>
       </c>
       <c r="G10" t="n">
         <v>5.495743235424751</v>
@@ -1302,13 +1302,13 @@
         <v>1.072676679938741</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02071078420193911</v>
+        <v>0.02071078420193912</v>
       </c>
       <c r="X10" t="n">
         <v>3.386249709291839</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1452806053450015</v>
+        <v>0.1452806053450014</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>5.177721303843248</v>
       </c>
       <c r="G11" t="n">
-        <v>6.599563820167444</v>
+        <v>6.599563820167443</v>
       </c>
       <c r="H11" t="n">
         <v>0.4022123541471698</v>
@@ -1352,10 +1352,10 @@
         <v>0.5075348175537144</v>
       </c>
       <c r="L11" t="n">
-        <v>19.23102175243089</v>
+        <v>19.23102175243088</v>
       </c>
       <c r="M11" t="n">
-        <v>7.918648894113076</v>
+        <v>7.918648894113075</v>
       </c>
       <c r="N11" t="n">
         <v>0.4128308603819081</v>
@@ -1385,7 +1385,7 @@
         <v>1.115024540701423</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02328939691455935</v>
+        <v>0.02328939691455936</v>
       </c>
       <c r="X11" t="n">
         <v>3.142026784349246</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>3.736619372037069</v>
+        <v>3.73661937203707</v>
       </c>
       <c r="E12" t="n">
         <v>0.1330224256243689</v>
@@ -1429,7 +1429,7 @@
         <v>19.51175858548605</v>
       </c>
       <c r="J12" t="n">
-        <v>7.265148734512533</v>
+        <v>7.265148734512534</v>
       </c>
       <c r="K12" t="n">
         <v>0.4074585885740736</v>
@@ -1450,16 +1450,16 @@
         <v>2.068946342014706</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.05844939290954149</v>
+        <v>0.05844939290954146</v>
       </c>
       <c r="R12" t="n">
-        <v>5.190295099153306</v>
+        <v>5.19029509915331</v>
       </c>
       <c r="S12" t="n">
         <v>1.634657969374362</v>
       </c>
       <c r="T12" t="n">
-        <v>0.04680694914192007</v>
+        <v>0.04680694914192006</v>
       </c>
       <c r="U12" t="n">
         <v>4.07033225225662</v>
@@ -1539,7 +1539,7 @@
         <v>10.08106840437144</v>
       </c>
       <c r="S13" t="n">
-        <v>1.671999770446756</v>
+        <v>1.671999770446757</v>
       </c>
       <c r="T13" t="n">
         <v>0.05465266968723432</v>
@@ -1551,13 +1551,13 @@
         <v>0.5152063012079418</v>
       </c>
       <c r="W13" t="n">
-        <v>0.007800810207429707</v>
+        <v>0.007800810207429711</v>
       </c>
       <c r="X13" t="n">
         <v>2.013881663859454</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0623690882150516</v>
+        <v>0.06236908821505152</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>7.407221334554938</v>
       </c>
       <c r="G14" t="n">
-        <v>7.540309719908135</v>
+        <v>7.540309719908134</v>
       </c>
       <c r="H14" t="n">
         <v>0.4745085189032384</v>
@@ -1598,7 +1598,7 @@
         <v>9.530070577408956</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5514971315571103</v>
+        <v>0.5514971315571104</v>
       </c>
       <c r="L14" t="n">
         <v>21.71973245384461</v>
@@ -1625,7 +1625,7 @@
         <v>2.356228797395161</v>
       </c>
       <c r="T14" t="n">
-        <v>0.07664974568241323</v>
+        <v>0.07664974568241324</v>
       </c>
       <c r="U14" t="n">
         <v>6.180089810402554</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8393316717051018</v>
+        <v>0.8393316717051019</v>
       </c>
       <c r="E15" t="n">
         <v>0.001689936243730497</v>
@@ -1669,46 +1669,46 @@
         <v>1.890205159204158</v>
       </c>
       <c r="G15" t="n">
-        <v>2.902746993510476</v>
+        <v>2.902746993510474</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1090826201561112</v>
+        <v>0.1090826201561113</v>
       </c>
       <c r="I15" t="n">
-        <v>6.797739734368971</v>
+        <v>6.797739734368972</v>
       </c>
       <c r="J15" t="n">
-        <v>2.456228057406027</v>
+        <v>2.456228057406028</v>
       </c>
       <c r="K15" t="n">
         <v>0.1144923024647073</v>
       </c>
       <c r="L15" t="n">
-        <v>5.101552953134117</v>
+        <v>5.101552953134119</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8099034784499537</v>
+        <v>0.8099034784499555</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001464256526373942</v>
+        <v>0.001464256526373997</v>
       </c>
       <c r="O15" t="n">
-        <v>1.339730981531101</v>
+        <v>1.339730981531103</v>
       </c>
       <c r="P15" t="n">
         <v>2.349219517354815</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.08742628218066052</v>
+        <v>0.08742628218066054</v>
       </c>
       <c r="R15" t="n">
-        <v>5.225794054466125</v>
+        <v>5.225794054466128</v>
       </c>
       <c r="S15" t="n">
         <v>2.624536639905675</v>
       </c>
       <c r="T15" t="n">
-        <v>0.09259781349125404</v>
+        <v>0.09259781349125402</v>
       </c>
       <c r="U15" t="n">
         <v>5.602672783889226</v>
@@ -1723,7 +1723,7 @@
         <v>3.922274490103873</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.4154274103283251</v>
+        <v>0.4154274103283252</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0.01065806240883022</v>
       </c>
       <c r="F16" t="n">
-        <v>1.687708514198478</v>
+        <v>1.687708514198479</v>
       </c>
       <c r="G16" t="n">
         <v>2.940724209751461</v>
@@ -1761,7 +1761,7 @@
         <v>6.964837679323324</v>
       </c>
       <c r="J16" t="n">
-        <v>4.193999146976861</v>
+        <v>4.193999146976862</v>
       </c>
       <c r="K16" t="n">
         <v>0.2196364072636305</v>
@@ -1770,7 +1770,7 @@
         <v>9.446849315719589</v>
       </c>
       <c r="M16" t="n">
-        <v>4.385530883692118</v>
+        <v>4.385530883692119</v>
       </c>
       <c r="N16" t="n">
         <v>0.2044790230850535</v>
@@ -1788,10 +1788,10 @@
         <v>8.715064846825788</v>
       </c>
       <c r="S16" t="n">
-        <v>2.908909643020347</v>
+        <v>2.908909643020348</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1015707646729619</v>
+        <v>0.1015707646729618</v>
       </c>
       <c r="U16" t="n">
         <v>6.590023300354001</v>
@@ -1806,7 +1806,7 @@
         <v>3.910540619505153</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3575646531736673</v>
+        <v>0.3575646531736674</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4.330444862861848</v>
+        <v>4.330444862861849</v>
       </c>
       <c r="E17" t="n">
         <v>0.1635800927778563</v>
@@ -1835,7 +1835,7 @@
         <v>11.41249492777383</v>
       </c>
       <c r="G17" t="n">
-        <v>8.04655751094089</v>
+        <v>8.046557510940891</v>
       </c>
       <c r="H17" t="n">
         <v>0.4607836316339978</v>
@@ -1847,34 +1847,34 @@
         <v>6.607028620577715</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3183091781284186</v>
+        <v>0.3183091781284187</v>
       </c>
       <c r="L17" t="n">
         <v>14.52440457331447</v>
       </c>
       <c r="M17" t="n">
-        <v>2.732386353124118</v>
+        <v>2.732386353124119</v>
       </c>
       <c r="N17" t="n">
         <v>0.08664377038093246</v>
       </c>
       <c r="O17" t="n">
-        <v>6.332562096191428</v>
+        <v>6.332562096191429</v>
       </c>
       <c r="P17" t="n">
         <v>1.975471130213918</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01948973737585838</v>
+        <v>0.01948973737585832</v>
       </c>
       <c r="R17" t="n">
-        <v>5.145864481287227</v>
+        <v>5.145864481287231</v>
       </c>
       <c r="S17" t="n">
         <v>1.556500047320191</v>
       </c>
       <c r="T17" t="n">
-        <v>0.01658487218490476</v>
+        <v>0.01658487218490474</v>
       </c>
       <c r="U17" t="n">
         <v>3.896608771037835</v>
@@ -1883,7 +1883,7 @@
         <v>0.8944426521767923</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0002106081709132637</v>
+        <v>0.0002106081709132568</v>
       </c>
       <c r="X17" t="n">
         <v>2.388206050417284</v>
@@ -1915,10 +1915,10 @@
         <v>-0.1298286370640909</v>
       </c>
       <c r="F18" t="n">
-        <v>-7.672380273321176</v>
+        <v>-7.672380273321174</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.323283820840223</v>
+        <v>-5.323283820840222</v>
       </c>
       <c r="H18" t="n">
         <v>-0.3518293359792337</v>
@@ -1933,13 +1933,13 @@
         <v>-0.1069777655345774</v>
       </c>
       <c r="L18" t="n">
-        <v>0.09453420971538407</v>
+        <v>0.09453420971538762</v>
       </c>
       <c r="M18" t="n">
-        <v>6.93637015987729</v>
+        <v>6.936370159877292</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3376401282130435</v>
+        <v>0.3376401282130434</v>
       </c>
       <c r="O18" t="n">
         <v>16.31543474359299</v>
@@ -1951,7 +1951,7 @@
         <v>0.3068664803972853</v>
       </c>
       <c r="R18" t="n">
-        <v>14.30538756506642</v>
+        <v>14.30538756506641</v>
       </c>
       <c r="S18" t="n">
         <v>4.675486560796198</v>
@@ -1966,7 +1966,7 @@
         <v>2.468422947975448</v>
       </c>
       <c r="W18" t="n">
-        <v>0.03791315733234693</v>
+        <v>0.03791315733234692</v>
       </c>
       <c r="X18" t="n">
         <v>5.71461550742503</v>
@@ -2022,7 +2022,7 @@
         <v>5.257546072007048</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2512227264403658</v>
+        <v>0.2512227264403659</v>
       </c>
       <c r="O19" t="n">
         <v>11.60698342615741</v>
@@ -2031,10 +2031,10 @@
         <v>2.595546164883912</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.08786352615307005</v>
+        <v>0.08786352615307001</v>
       </c>
       <c r="R19" t="n">
-        <v>6.580689957545259</v>
+        <v>6.580689957545263</v>
       </c>
       <c r="S19" t="n">
         <v>1.368087286818541</v>
@@ -2049,13 +2049,13 @@
         <v>0.6079927157067846</v>
       </c>
       <c r="W19" t="n">
-        <v>0.007314214885174513</v>
+        <v>0.007314214885174516</v>
       </c>
       <c r="X19" t="n">
         <v>1.991057371193983</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.11687552208181</v>
+        <v>0.1168755220818099</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>9.182994897062141</v>
       </c>
       <c r="G20" t="n">
-        <v>7.105811611200201</v>
+        <v>7.105811611200199</v>
       </c>
       <c r="H20" t="n">
         <v>0.3884874668779291</v>
@@ -2102,7 +2102,7 @@
         <v>12.03569387190075</v>
       </c>
       <c r="M20" t="n">
-        <v>1.673503748005402</v>
+        <v>1.673503748005404</v>
       </c>
       <c r="N20" t="n">
         <v>0.03516756978505214</v>
@@ -2114,16 +2114,16 @@
         <v>1.758908824679709</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02426249852093565</v>
+        <v>0.02426249852093562</v>
       </c>
       <c r="R20" t="n">
-        <v>4.47288236102429</v>
+        <v>4.472882361024294</v>
       </c>
       <c r="S20" t="n">
         <v>1.728864349625187</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03603728560123611</v>
+        <v>0.0360372856012361</v>
       </c>
       <c r="U20" t="n">
         <v>4.075096166558914</v>
@@ -2132,13 +2132,13 @@
         <v>1.090869745323934</v>
       </c>
       <c r="W20" t="n">
-        <v>0.009640673619736837</v>
+        <v>0.009640673619736834</v>
       </c>
       <c r="X20" t="n">
         <v>2.725013043085698</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2600351607168857</v>
+        <v>0.2600351607168858</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2161,13 +2161,13 @@
         <v>1.482000409858727</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03433370942590124</v>
+        <v>0.03433370942590125</v>
       </c>
       <c r="F21" t="n">
         <v>3.662778432417234</v>
       </c>
       <c r="G21" t="n">
-        <v>3.963007451993153</v>
+        <v>3.963007451993152</v>
       </c>
       <c r="H21" t="n">
         <v>0.1874207328594886</v>
@@ -2176,7 +2176,7 @@
         <v>9.177157436959888</v>
       </c>
       <c r="J21" t="n">
-        <v>3.666848393651271</v>
+        <v>3.666848393651273</v>
       </c>
       <c r="K21" t="n">
         <v>0.180741969079517</v>
@@ -2185,7 +2185,7 @@
         <v>7.921412273472145</v>
       </c>
       <c r="M21" t="n">
-        <v>1.919710397149357</v>
+        <v>1.919710397149358</v>
       </c>
       <c r="N21" t="n">
         <v>0.0606437764807134</v>
@@ -2197,10 +2197,10 @@
         <v>2.589150625839221</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.09239343491900401</v>
+        <v>0.09239343491900402</v>
       </c>
       <c r="R21" t="n">
-        <v>5.909883829195582</v>
+        <v>5.909883829195585</v>
       </c>
       <c r="S21" t="n">
         <v>2.471711818114221</v>
@@ -2221,7 +2221,7 @@
         <v>3.620025660699649</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.3621136586368008</v>
+        <v>0.3621136586368009</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>6.290871174552031</v>
       </c>
       <c r="G22" t="n">
-        <v>7.817316053633095</v>
+        <v>7.817316053633094</v>
       </c>
       <c r="H22" t="n">
         <v>0.5205400188895475</v>
@@ -2265,7 +2265,7 @@
         <v>0.701215941578861</v>
       </c>
       <c r="L22" t="n">
-        <v>26.72732605427869</v>
+        <v>26.72732605427868</v>
       </c>
       <c r="M22" t="n">
         <v>12.65500753163533</v>
@@ -2298,13 +2298,13 @@
         <v>0.8391115642834734</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01759139398947952</v>
+        <v>0.01759139398947953</v>
       </c>
       <c r="X22" t="n">
         <v>2.862602247610493</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1032285056924095</v>
+        <v>0.1032285056924094</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2342,16 +2342,16 @@
         <v>10.40544891147961</v>
       </c>
       <c r="J23" t="n">
-        <v>2.646107554874569</v>
+        <v>2.64610755487457</v>
       </c>
       <c r="K23" t="n">
         <v>0.07498547306116221</v>
       </c>
       <c r="L23" t="n">
-        <v>5.402529374451781</v>
+        <v>5.402529374451783</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.6988830301354652</v>
+        <v>-0.6988830301354634</v>
       </c>
       <c r="N23" t="n">
         <v>-0.106301428199004</v>
@@ -2363,16 +2363,16 @@
         <v>1.208940198860307</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.01489154860601369</v>
+        <v>-0.01489154860601372</v>
       </c>
       <c r="R23" t="n">
-        <v>3.071379848165818</v>
+        <v>3.071379848165821</v>
       </c>
       <c r="S23" t="n">
         <v>1.975895551667466</v>
       </c>
       <c r="T23" t="n">
-        <v>0.03716451623762968</v>
+        <v>0.03716451623762966</v>
       </c>
       <c r="U23" t="n">
         <v>4.214916606077594</v>
@@ -2387,7 +2387,7 @@
         <v>3.225836212101573</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.356593694236236</v>
+        <v>0.3565936942362361</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>1.230781756699864</v>
       </c>
       <c r="G24" t="n">
-        <v>3.060238768493449</v>
+        <v>3.060238768493448</v>
       </c>
       <c r="H24" t="n">
         <v>0.1490721721951115</v>
@@ -2434,7 +2434,7 @@
         <v>9.777997934643896</v>
       </c>
       <c r="M24" t="n">
-        <v>4.436455197272805</v>
+        <v>4.436455197272806</v>
       </c>
       <c r="N24" t="n">
         <v>0.2121823424435126</v>
@@ -2464,13 +2464,13 @@
         <v>1.624502632774641</v>
       </c>
       <c r="W24" t="n">
-        <v>0.03210679005209877</v>
+        <v>0.03210679005209878</v>
       </c>
       <c r="X24" t="n">
         <v>3.945098782769344</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.3609209764615667</v>
+        <v>0.3609209764615668</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -2499,25 +2499,25 @@
         <v>-4.43679759616934</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.58290686792324</v>
+        <v>-1.582906867923239</v>
       </c>
       <c r="H25" t="n">
         <v>-0.1205528622242495</v>
       </c>
       <c r="I25" t="n">
-        <v>-3.202665524248481</v>
+        <v>-3.202665524248482</v>
       </c>
       <c r="J25" t="n">
         <v>2.333469895686433</v>
       </c>
       <c r="K25" t="n">
-        <v>0.09806389256799702</v>
+        <v>0.09806389256799708</v>
       </c>
       <c r="L25" t="n">
-        <v>5.864558902765515</v>
+        <v>5.864558902765516</v>
       </c>
       <c r="M25" t="n">
-        <v>6.944785078636772</v>
+        <v>6.944785078636773</v>
       </c>
       <c r="N25" t="n">
         <v>0.3506805183096776</v>
@@ -2532,7 +2532,7 @@
         <v>0.2874351134163208</v>
       </c>
       <c r="R25" t="n">
-        <v>12.92392436922773</v>
+        <v>12.92392436922772</v>
       </c>
       <c r="S25" t="n">
         <v>4.030336494874879</v>
@@ -2579,10 +2579,10 @@
         <v>0.06489137657938869</v>
       </c>
       <c r="F26" t="n">
-        <v>5.490485462411692</v>
+        <v>5.490485462411691</v>
       </c>
       <c r="G26" t="n">
-        <v>3.484949217025203</v>
+        <v>3.484949217025204</v>
       </c>
       <c r="H26" t="n">
         <v>0.1632529410702538</v>
@@ -2597,31 +2597,31 @@
         <v>0.09159255863386201</v>
       </c>
       <c r="L26" t="n">
-        <v>6.596817797774923</v>
+        <v>6.596817797774925</v>
       </c>
       <c r="M26" t="n">
-        <v>1.716013142826609</v>
+        <v>1.71601314282661</v>
       </c>
       <c r="N26" t="n">
         <v>0.02983049904687701</v>
       </c>
       <c r="O26" t="n">
-        <v>4.067981392229193</v>
+        <v>4.067981392229195</v>
       </c>
       <c r="P26" t="n">
         <v>2.495675414038432</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0534337793853209</v>
+        <v>0.05343377938532087</v>
       </c>
       <c r="R26" t="n">
-        <v>5.865453211329504</v>
+        <v>5.865453211329505</v>
       </c>
       <c r="S26" t="n">
-        <v>2.39355389606005</v>
+        <v>2.393553896060049</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0504788423571612</v>
+        <v>0.05047884235716119</v>
       </c>
       <c r="U26" t="n">
         <v>5.293892777454057</v>
@@ -2636,7 +2636,7 @@
         <v>3.481793007642885</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.3486883654852031</v>
+        <v>0.3486883654852032</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -2674,13 +2674,13 @@
         <v>34.60519513919404</v>
       </c>
       <c r="J27" t="n">
-        <v>13.28468974786429</v>
+        <v>13.28468974786428</v>
       </c>
       <c r="K27" t="n">
         <v>0.7666745412982496</v>
       </c>
       <c r="L27" t="n">
-        <v>29.41630446522729</v>
+        <v>29.41630446522728</v>
       </c>
       <c r="M27" t="n">
         <v>6.172070655143182</v>
@@ -2695,16 +2695,16 @@
         <v>2.028604275159003</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.03443965637676594</v>
+        <v>0.03443965637676591</v>
       </c>
       <c r="R27" t="n">
-        <v>5.838885918569944</v>
+        <v>5.838885918569948</v>
       </c>
       <c r="S27" t="n">
         <v>0.4919544770515962</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.01088080938449142</v>
+        <v>-0.01088080938449144</v>
       </c>
       <c r="U27" t="n">
         <v>2.402935195407629</v>
@@ -2748,7 +2748,7 @@
         <v>0.5713583541955707</v>
       </c>
       <c r="G28" t="n">
-        <v>3.217730543476423</v>
+        <v>3.217730543476422</v>
       </c>
       <c r="H28" t="n">
         <v>0.1890617242341119</v>
@@ -2757,7 +2757,7 @@
         <v>7.787954479688904</v>
       </c>
       <c r="J28" t="n">
-        <v>6.260830293515104</v>
+        <v>6.260830293515105</v>
       </c>
       <c r="K28" t="n">
         <v>0.3693552172853812</v>
@@ -2778,7 +2778,7 @@
         <v>5.496027376480664</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.2729708991736998</v>
+        <v>0.2729708991736999</v>
       </c>
       <c r="R28" t="n">
         <v>12.22655094811849</v>
@@ -2831,7 +2831,7 @@
         <v>10.29934505706505</v>
       </c>
       <c r="G29" t="n">
-        <v>6.82880527747524</v>
+        <v>6.828805277475238</v>
       </c>
       <c r="H29" t="n">
         <v>0.3424559668916201</v>
@@ -2843,13 +2843,13 @@
         <v>3.494107166277931</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1246280541032721</v>
+        <v>0.124628054103272</v>
       </c>
       <c r="L29" t="n">
-        <v>7.028100271466666</v>
+        <v>7.028100271466668</v>
       </c>
       <c r="M29" t="n">
-        <v>-2.003972284398136</v>
+        <v>-2.003972284398134</v>
       </c>
       <c r="N29" t="n">
         <v>-0.1832538354905456</v>
@@ -2864,13 +2864,13 @@
         <v>-0.0782497238590048</v>
       </c>
       <c r="R29" t="n">
-        <v>0.9613962597315879</v>
+        <v>0.961396259731595</v>
       </c>
       <c r="S29" t="n">
         <v>1.405412385483429</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01195329594102065</v>
+        <v>0.01195329594102061</v>
       </c>
       <c r="U29" t="n">
         <v>3.000883909484747</v>
@@ -2879,19 +2879,19 @@
         <v>1.170355628594742</v>
       </c>
       <c r="W29" t="n">
-        <v>0.005908611095993091</v>
+        <v>0.005908611095993086</v>
       </c>
       <c r="X29" t="n">
         <v>2.667630587156037</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.3111852712957446</v>
+        <v>0.3111852712957447</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.9629499964452028</v>
+        <v>0.962949996445203</v>
       </c>
     </row>
     <row r="30">
@@ -2932,7 +2932,7 @@
         <v>13.22998229522389</v>
       </c>
       <c r="M30" t="n">
-        <v>4.088399920967476</v>
+        <v>4.088399920967477</v>
       </c>
       <c r="N30" t="n">
         <v>0.1712994970309331</v>
@@ -2944,16 +2944,16 @@
         <v>3.045644039857834</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.09258782651227025</v>
+        <v>0.09258782651227022</v>
       </c>
       <c r="R30" t="n">
-        <v>7.266955724187977</v>
+        <v>7.266955724187978</v>
       </c>
       <c r="S30" t="n">
         <v>2.146522694017771</v>
       </c>
       <c r="T30" t="n">
-        <v>0.04935161172076764</v>
+        <v>0.04935161172076763</v>
       </c>
       <c r="U30" t="n">
         <v>5.154072337935378</v>
@@ -2962,7 +2962,7 @@
         <v>1.154608830288129</v>
       </c>
       <c r="W30" t="n">
-        <v>0.009820932786349955</v>
+        <v>0.009820932786349951</v>
       </c>
       <c r="X30" t="n">
         <v>2.980969838627011</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.8700799309353695</v>
+        <v>0.8700799309353696</v>
       </c>
     </row>
     <row r="31">
@@ -2997,7 +2997,7 @@
         <v>5.487285173117566</v>
       </c>
       <c r="G31" t="n">
-        <v>4.979707784215815</v>
+        <v>4.979707784215816</v>
       </c>
       <c r="H31" t="n">
         <v>0.3276121057989405</v>
@@ -3006,7 +3006,7 @@
         <v>11.56276160175389</v>
       </c>
       <c r="J31" t="n">
-        <v>8.188480880554481</v>
+        <v>8.188480880554479</v>
       </c>
       <c r="K31" t="n">
         <v>0.4349924926807593</v>
@@ -3018,7 +3018,7 @@
         <v>10.1298478127524</v>
       </c>
       <c r="N31" t="n">
-        <v>0.5181495101939528</v>
+        <v>0.5181495101939527</v>
       </c>
       <c r="O31" t="n">
         <v>23.50781817241905</v>
@@ -3036,7 +3036,7 @@
         <v>2.86809352203857</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0791944082612608</v>
+        <v>0.07919440826126081</v>
       </c>
       <c r="U31" t="n">
         <v>7.263829896081312</v>
@@ -3045,7 +3045,7 @@
         <v>1.125561500753481</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01048778727521827</v>
+        <v>0.01048778727521826</v>
       </c>
       <c r="X31" t="n">
         <v>3.259750926833795</v>
@@ -3080,7 +3080,7 @@
         <v>1.227581467405738</v>
       </c>
       <c r="G32" t="n">
-        <v>4.55499733568406</v>
+        <v>4.554997335684059</v>
       </c>
       <c r="H32" t="n">
         <v>0.3134313369237982</v>
@@ -3110,10 +3110,10 @@
         <v>7.332731217478191</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3804502742919837</v>
+        <v>0.3804502742919838</v>
       </c>
       <c r="R32" t="n">
-        <v>16.42212682414065</v>
+        <v>16.42212682414064</v>
       </c>
       <c r="S32" t="n">
         <v>3.402988749512411</v>
@@ -3128,13 +3128,13 @@
         <v>1.269103773085883</v>
       </c>
       <c r="W32" t="n">
-        <v>0.03014084965076268</v>
+        <v>0.03014084965076269</v>
       </c>
       <c r="X32" t="n">
         <v>3.723056701960253</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.2019506803244252</v>
+        <v>0.2019506803244251</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -3181,7 +3181,7 @@
         <v>22.05088107276891</v>
       </c>
       <c r="M33" t="n">
-        <v>9.02845581281248</v>
+        <v>9.028455812812478</v>
       </c>
       <c r="N33" t="n">
         <v>0.4720103803362475</v>
@@ -3261,31 +3261,31 @@
         <v>0.5010634836195794</v>
       </c>
       <c r="L34" t="n">
-        <v>19.9632806474403</v>
+        <v>19.96328064744029</v>
       </c>
       <c r="M34" t="n">
-        <v>2.689876958302912</v>
+        <v>2.689876958302913</v>
       </c>
       <c r="N34" t="n">
-        <v>0.09198084111910754</v>
+        <v>0.09198084111910759</v>
       </c>
       <c r="O34" t="n">
-        <v>5.907909423333471</v>
+        <v>5.90790942333347</v>
       </c>
       <c r="P34" t="n">
         <v>1.238704540855195</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.0096815434885269</v>
+        <v>-0.009681543488526928</v>
       </c>
       <c r="R34" t="n">
-        <v>3.753293630982014</v>
+        <v>3.753293630982019</v>
       </c>
       <c r="S34" t="n">
         <v>0.8918105008853288</v>
       </c>
       <c r="T34" t="n">
-        <v>0.002143315428979678</v>
+        <v>0.00214331542897965</v>
       </c>
       <c r="U34" t="n">
         <v>2.677812160142693</v>
@@ -3329,7 +3329,7 @@
         <v>4.978424948131695</v>
       </c>
       <c r="G35" t="n">
-        <v>5.142782469217819</v>
+        <v>5.142782469217818</v>
       </c>
       <c r="H35" t="n">
         <v>0.2718007935101747</v>
@@ -3338,22 +3338,22 @@
         <v>11.88458456725642</v>
       </c>
       <c r="J35" t="n">
-        <v>5.041998758380222</v>
+        <v>5.041998758380223</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2692789883057403</v>
+        <v>0.2692789883057404</v>
       </c>
       <c r="L35" t="n">
         <v>11.07242021273447</v>
       </c>
       <c r="M35" t="n">
-        <v>3.080441629429448</v>
+        <v>3.080441629429449</v>
       </c>
       <c r="N35" t="n">
         <v>0.1275266157935119</v>
       </c>
       <c r="O35" t="n">
-        <v>6.679180701293586</v>
+        <v>6.679180701293584</v>
       </c>
       <c r="P35" t="n">
         <v>2.852450537273823</v>
@@ -3362,13 +3362,13 @@
         <v>0.1071005015407683</v>
       </c>
       <c r="R35" t="n">
-        <v>6.605081258391559</v>
+        <v>6.605081258391561</v>
       </c>
       <c r="S35" t="n">
         <v>2.33842647683631</v>
       </c>
       <c r="T35" t="n">
-        <v>0.07635954437635281</v>
+        <v>0.0763595443763528</v>
       </c>
       <c r="U35" t="n">
         <v>5.375990603761154</v>
@@ -3421,7 +3421,7 @@
         <v>2.540198164050192</v>
       </c>
       <c r="J36" t="n">
-        <v>5.248300653628037</v>
+        <v>5.248300653628038</v>
       </c>
       <c r="K36" t="n">
         <v>0.2974252836318576</v>
@@ -3430,7 +3430,7 @@
         <v>12.49772340021448</v>
       </c>
       <c r="M36" t="n">
-        <v>9.317171856777641</v>
+        <v>9.317171856777639</v>
       </c>
       <c r="N36" t="n">
         <v>0.4921495162937337</v>
@@ -3460,7 +3460,7 @@
         <v>1.765281333931066</v>
       </c>
       <c r="W36" t="n">
-        <v>0.03571277558681356</v>
+        <v>0.03571277558681357</v>
       </c>
       <c r="X36" t="n">
         <v>4.491570537116161</v>
@@ -3489,13 +3489,13 @@
         <v>3.045107386554599</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09829254641351486</v>
+        <v>0.09829254641351487</v>
       </c>
       <c r="F37" t="n">
         <v>7.867348381347679</v>
       </c>
       <c r="G37" t="n">
-        <v>5.926036593975535</v>
+        <v>5.926036593975534</v>
       </c>
       <c r="H37" t="n">
         <v>0.304107406227243</v>
@@ -3513,28 +3513,28 @@
         <v>8.884685932638419</v>
       </c>
       <c r="M37" t="n">
-        <v>0.5127725157253122</v>
+        <v>0.512772515725314</v>
       </c>
       <c r="N37" t="n">
         <v>-0.03171526952774639</v>
       </c>
       <c r="O37" t="n">
-        <v>0.980106698469644</v>
+        <v>0.9801066984696458</v>
       </c>
       <c r="P37" t="n">
         <v>1.495608913245106</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.009555431899171379</v>
+        <v>0.009555431899171324</v>
       </c>
       <c r="R37" t="n">
-        <v>3.777684931828313</v>
+        <v>3.777684931828318</v>
       </c>
       <c r="S37" t="n">
         <v>1.862149690903098</v>
       </c>
       <c r="T37" t="n">
-        <v>0.04037866053905981</v>
+        <v>0.04037866053905979</v>
       </c>
       <c r="U37" t="n">
         <v>4.166721821470603</v>
@@ -3596,7 +3596,7 @@
         <v>23.97742839110146</v>
       </c>
       <c r="M38" t="n">
-        <v>6.21458004996439</v>
+        <v>6.214580049964389</v>
       </c>
       <c r="N38" t="n">
         <v>0.287292288319328</v>
@@ -3605,13 +3605,13 @@
         <v>14.3222281588962</v>
       </c>
       <c r="P38" t="n">
-        <v>2.765370864517725</v>
+        <v>2.765370864517726</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.06361093724115122</v>
+        <v>0.06361093724115116</v>
       </c>
       <c r="R38" t="n">
-        <v>7.231456768875157</v>
+        <v>7.23145676887516</v>
       </c>
       <c r="S38" t="n">
         <v>1.156644023486458</v>
@@ -3626,13 +3626,13 @@
         <v>0.3849645601035747</v>
       </c>
       <c r="W38" t="n">
-        <v>-0.00860678496662616</v>
+        <v>-0.008606784966626164</v>
       </c>
       <c r="X38" t="n">
         <v>1.585134051997186</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.05349280052658739</v>
+        <v>0.05349280052658736</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>24.10349604571353</v>
       </c>
       <c r="J39" t="n">
-        <v>7.94861831743219</v>
+        <v>7.948618317432191</v>
       </c>
       <c r="K39" t="n">
         <v>0.4348138170047697</v>
@@ -3679,7 +3679,7 @@
         <v>17.14342132710227</v>
       </c>
       <c r="M39" t="n">
-        <v>1.580070039603509</v>
+        <v>1.58007003960351</v>
       </c>
       <c r="N39" t="n">
         <v>0.03280132116476814</v>
@@ -3691,16 +3691,16 @@
         <v>0.9987734323707897</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.0146486962268704</v>
+        <v>-0.01464869622687043</v>
       </c>
       <c r="R39" t="n">
-        <v>3.069203856252558</v>
+        <v>3.069203856252563</v>
       </c>
       <c r="S39" t="n">
         <v>1.044635322676782</v>
       </c>
       <c r="T39" t="n">
-        <v>0.0140402096060572</v>
+        <v>0.01404020960605716</v>
       </c>
       <c r="U39" t="n">
         <v>2.812868685359077</v>
@@ -3744,7 +3744,7 @@
         <v>-2.00480092045197</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.6801381844235355</v>
+        <v>-0.6801381844235346</v>
       </c>
       <c r="H40" t="n">
         <v>-0.08220430155987252</v>
@@ -3753,16 +3753,16 @@
         <v>-1.318355194317531</v>
       </c>
       <c r="J40" t="n">
-        <v>1.641789113877139</v>
+        <v>1.64178911387714</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03688210177246981</v>
+        <v>0.03688210177246976</v>
       </c>
       <c r="L40" t="n">
-        <v>4.007973241593763</v>
+        <v>4.007973241593765</v>
       </c>
       <c r="M40" t="n">
-        <v>4.428040278513324</v>
+        <v>4.428040278513325</v>
       </c>
       <c r="N40" t="n">
         <v>0.1991419523468784</v>
@@ -3792,7 +3792,7 @@
         <v>2.001292716664913</v>
       </c>
       <c r="W40" t="n">
-        <v>0.03167437690742774</v>
+        <v>0.03167437690742773</v>
       </c>
       <c r="X40" t="n">
         <v>4.66732058406234</v>
@@ -3827,7 +3827,7 @@
         <v>-4.182367483676405</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.664444210424241</v>
+        <v>-1.664444210424239</v>
       </c>
       <c r="H41" t="n">
         <v>-0.09264720607986671</v>
@@ -3836,13 +3836,13 @@
         <v>-3.363577006999746</v>
       </c>
       <c r="J41" t="n">
-        <v>3.906710956773563</v>
+        <v>3.906710956773562</v>
       </c>
       <c r="K41" t="n">
         <v>0.1809206447555066</v>
       </c>
       <c r="L41" t="n">
-        <v>9.87870664642668</v>
+        <v>9.878706646426682</v>
       </c>
       <c r="M41" t="n">
         <v>10.46948817029825</v>
@@ -3860,7 +3860,7 @@
         <v>0.3607275941459989</v>
       </c>
       <c r="R41" t="n">
-        <v>16.40208750712087</v>
+        <v>16.40208750712086</v>
       </c>
       <c r="S41" t="n">
         <v>4.295170017476009</v>
@@ -3875,7 +3875,7 @@
         <v>1.972245387130265</v>
       </c>
       <c r="W41" t="n">
-        <v>0.03234123139629606</v>
+        <v>0.03234123139629605</v>
       </c>
       <c r="X41" t="n">
         <v>4.946101672269124</v>
@@ -3940,16 +3940,16 @@
         <v>3.618981468627434</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.1414817875226404</v>
+        <v>0.1414817875226403</v>
       </c>
       <c r="R42" t="n">
-        <v>8.679565891512969</v>
+        <v>8.67956589151297</v>
       </c>
       <c r="S42" t="n">
         <v>1.919030972489035</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0557799003236279</v>
+        <v>0.05577990032362788</v>
       </c>
       <c r="U42" t="n">
         <v>5.057682768721395</v>
@@ -3990,7 +3990,7 @@
         <v>0.1149000893669865</v>
       </c>
       <c r="F43" t="n">
-        <v>8.121778493840615</v>
+        <v>8.121778493840614</v>
       </c>
       <c r="G43" t="n">
         <v>5.844499251474534</v>
@@ -4002,7 +4002,7 @@
         <v>13.27997398673049</v>
       </c>
       <c r="J43" t="n">
-        <v>5.759029009174354</v>
+        <v>5.759029009174353</v>
       </c>
       <c r="K43" t="n">
         <v>0.2686665970863088</v>
@@ -4011,7 +4011,7 @@
         <v>12.89883367629958</v>
       </c>
       <c r="M43" t="n">
-        <v>4.037475607386789</v>
+        <v>4.03747560738679</v>
       </c>
       <c r="N43" t="n">
         <v>0.1635961776724741</v>
@@ -4023,16 +4023,16 @@
         <v>3.022275236907637</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.08284791262884948</v>
+        <v>0.08284791262884944</v>
       </c>
       <c r="R43" t="n">
-        <v>7.255848069721456</v>
+        <v>7.255848069721459</v>
       </c>
       <c r="S43" t="n">
         <v>2.126983213504228</v>
       </c>
       <c r="T43" t="n">
-        <v>0.04179609248151381</v>
+        <v>0.0417960924815138</v>
       </c>
       <c r="U43" t="n">
         <v>5.110641467630682</v>
@@ -4041,7 +4041,7 @@
         <v>1.141308299060094</v>
       </c>
       <c r="W43" t="n">
-        <v>0.006575465584861405</v>
+        <v>0.0065754655848614</v>
       </c>
       <c r="X43" t="n">
         <v>2.94641167536282</v>
@@ -4073,10 +4073,10 @@
         <v>-0.06036887864238284</v>
       </c>
       <c r="F44" t="n">
-        <v>-4.237501240457787</v>
+        <v>-4.237501240457785</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.1261255169736142</v>
+        <v>-0.1261255169736133</v>
       </c>
       <c r="H44" t="n">
         <v>0.009858698412745504</v>
@@ -4106,7 +4106,7 @@
         <v>7.829566698352508</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.4046544024180255</v>
+        <v>0.4046544024180256</v>
       </c>
       <c r="R44" t="n">
         <v>17.1306078997164</v>
@@ -4130,7 +4130,7 @@
         <v>4.782085495921664</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.3439176367842669</v>
+        <v>0.3439176367842668</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>22.45199134885402</v>
       </c>
       <c r="M45" t="n">
-        <v>3.748759563421628</v>
+        <v>3.748759563421629</v>
       </c>
       <c r="N45" t="n">
         <v>0.1434570417149879</v>
@@ -4189,16 +4189,16 @@
         <v>1.455266846389403</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.01445430463360417</v>
+        <v>-0.0144543046336042</v>
       </c>
       <c r="R45" t="n">
-        <v>4.426275751244952</v>
+        <v>4.426275751244956</v>
       </c>
       <c r="S45" t="n">
         <v>0.7194461985803322</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.01730909798735168</v>
+        <v>-0.01730909798735171</v>
       </c>
       <c r="U45" t="n">
         <v>2.499324764621612</v>
@@ -4242,7 +4242,7 @@
         <v>2.196568739184348</v>
       </c>
       <c r="G46" t="n">
-        <v>2.777649524749458</v>
+        <v>2.777649524749459</v>
       </c>
       <c r="H46" t="n">
         <v>0.1988415365365686</v>
@@ -4251,7 +4251,7 @@
         <v>6.6430147138208</v>
       </c>
       <c r="J46" t="n">
-        <v>7.34048126915112</v>
+        <v>7.340481269151118</v>
       </c>
       <c r="K46" t="n">
         <v>0.3853499116386495</v>
@@ -4281,13 +4281,13 @@
         <v>3.438576688222607</v>
       </c>
       <c r="T46" t="n">
-        <v>0.1044056285578698</v>
+        <v>0.1044056285578699</v>
       </c>
       <c r="U46" t="n">
         <v>8.477862592674159</v>
       </c>
       <c r="V46" t="n">
-        <v>1.372427147636783</v>
+        <v>1.372427147636784</v>
       </c>
       <c r="W46" t="n">
         <v>0.01685264468916641</v>
@@ -4325,7 +4325,7 @@
         <v>10.95236788098109</v>
       </c>
       <c r="G47" t="n">
-        <v>9.66083063687349</v>
+        <v>9.660830636873492</v>
       </c>
       <c r="H47" t="n">
         <v>0.6311847443099932</v>
@@ -4355,7 +4355,7 @@
         <v>5.408947703724566</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.2294813348740828</v>
+        <v>0.2294813348740827</v>
       </c>
       <c r="R47" t="n">
         <v>12.85292645860209</v>
@@ -4367,7 +4367,7 @@
         <v>0.05285595732825819</v>
       </c>
       <c r="U47" t="n">
-        <v>5.909976759969785</v>
+        <v>5.909976759969786</v>
       </c>
       <c r="V47" t="n">
         <v>0.5523443237160683</v>
@@ -4379,13 +4379,13 @@
         <v>2.200722132872384</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.04775111288821984</v>
+        <v>0.04775111288821976</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.4181072168267454</v>
+        <v>0.4181072168267455</v>
       </c>
     </row>
     <row r="48">
@@ -4408,7 +4408,7 @@
         <v>10.4986414127766</v>
       </c>
       <c r="G48" t="n">
-        <v>8.285586628424866</v>
+        <v>8.285586628424864</v>
       </c>
       <c r="H48" t="n">
         <v>0.4728675275286152</v>
@@ -4417,16 +4417,16 @@
         <v>18.85573973007482</v>
       </c>
       <c r="J48" t="n">
-        <v>6.936088677545124</v>
+        <v>6.936088677545125</v>
       </c>
       <c r="K48" t="n">
-        <v>0.3628838833512461</v>
+        <v>0.3628838833512462</v>
       </c>
       <c r="L48" t="n">
         <v>15.18670181116308</v>
       </c>
       <c r="M48" t="n">
-        <v>2.834234980285492</v>
+        <v>2.834234980285493</v>
       </c>
       <c r="N48" t="n">
         <v>0.1020504090978506</v>
@@ -4438,16 +4438,16 @@
         <v>2.022208736114312</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.03896956514269995</v>
+        <v>0.03896956514269989</v>
       </c>
       <c r="R48" t="n">
-        <v>5.168079790220267</v>
+        <v>5.168079790220271</v>
       </c>
       <c r="S48" t="n">
         <v>1.595579008347277</v>
       </c>
       <c r="T48" t="n">
-        <v>0.03169591066341242</v>
+        <v>0.0316959106634124</v>
       </c>
       <c r="U48" t="n">
         <v>3.983470511647227</v>
@@ -4456,7 +4456,7 @@
         <v>0.9210437146328609</v>
       </c>
       <c r="W48" t="n">
-        <v>0.006701542573890362</v>
+        <v>0.00670154257389036</v>
       </c>
       <c r="X48" t="n">
         <v>2.457322376945666</v>
@@ -4485,13 +4485,13 @@
         <v>-2.465038656697917</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1193457175950804</v>
+        <v>-0.1193457175950803</v>
       </c>
       <c r="F49" t="n">
         <v>-6.666297626881031</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.52365276766393</v>
+        <v>-2.523652767663931</v>
       </c>
       <c r="H49" t="n">
         <v>-0.1928490269803182</v>
@@ -4500,13 +4500,13 @@
         <v>-5.254073799133785</v>
       </c>
       <c r="J49" t="n">
-        <v>1.287379587924891</v>
+        <v>1.287379587924893</v>
       </c>
       <c r="K49" t="n">
         <v>0.05410157856460113</v>
       </c>
       <c r="L49" t="n">
-        <v>3.375848201351795</v>
+        <v>3.375848201351797</v>
       </c>
       <c r="M49" t="n">
         <v>5.885902473518057</v>
@@ -4527,7 +4527,7 @@
         <v>12.25094224896479</v>
       </c>
       <c r="S49" t="n">
-        <v>4.202700797179876</v>
+        <v>4.202700797179875</v>
       </c>
       <c r="T49" t="n">
         <v>0.1638900994432575</v>
@@ -4539,13 +4539,13 @@
         <v>2.288059957232318</v>
       </c>
       <c r="W49" t="n">
-        <v>0.04777563592584153</v>
+        <v>0.04777563592584154</v>
       </c>
       <c r="X49" t="n">
         <v>5.329200698800449</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.5016952507461744</v>
+        <v>0.5016952507461745</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
@@ -4571,10 +4571,10 @@
         <v>0.08301371283677113</v>
       </c>
       <c r="F50" t="n">
-        <v>6.953494866350449</v>
+        <v>6.95349486635045</v>
       </c>
       <c r="G50" t="n">
-        <v>6.16506571145951</v>
+        <v>6.165065711459508</v>
       </c>
       <c r="H50" t="n">
         <v>0.3161913021218605</v>
@@ -4583,16 +4583,16 @@
         <v>14.09690432489298</v>
       </c>
       <c r="J50" t="n">
-        <v>4.514848005054633</v>
+        <v>4.514848005054635</v>
       </c>
       <c r="K50" t="n">
         <v>0.2303845501216268</v>
       </c>
       <c r="L50" t="n">
-        <v>9.54698317048703</v>
+        <v>9.546983170487028</v>
       </c>
       <c r="M50" t="n">
-        <v>0.614621142886687</v>
+        <v>0.6146211428866879</v>
       </c>
       <c r="N50" t="n">
         <v>-0.01630863081082817</v>
@@ -4604,16 +4604,16 @@
         <v>1.542346519145501</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.02903525966601292</v>
+        <v>0.02903525966601289</v>
       </c>
       <c r="R50" t="n">
-        <v>3.799900240761353</v>
+        <v>3.799900240761358</v>
       </c>
       <c r="S50" t="n">
         <v>1.901228651930184</v>
       </c>
       <c r="T50" t="n">
-        <v>0.05548969901756746</v>
+        <v>0.05548969901756745</v>
       </c>
       <c r="U50" t="n">
         <v>4.253583562079995</v>
@@ -4628,7 +4628,7 @@
         <v>3.061820035754113</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.3167052356963094</v>
+        <v>0.3167052356963095</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>-10.35880706153148</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.144515161838927</v>
+        <v>-6.144515161838926</v>
       </c>
       <c r="H51" t="n">
         <v>-0.4180835527879936</v>
@@ -4666,16 +4666,16 @@
         <v>-13.53726667277464</v>
       </c>
       <c r="J51" t="n">
-        <v>-1.264830445174829</v>
+        <v>-1.264830445174828</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.1286527269265595</v>
+        <v>-0.1286527269265596</v>
       </c>
       <c r="L51" t="n">
-        <v>-2.063027872774033</v>
+        <v>-2.063027872774029</v>
       </c>
       <c r="M51" t="n">
-        <v>5.928411868339262</v>
+        <v>5.928411868339263</v>
       </c>
       <c r="N51" t="n">
         <v>0.2938672469756222</v>
@@ -4693,7 +4693,7 @@
         <v>13.64351309927</v>
       </c>
       <c r="S51" t="n">
-        <v>4.867390343614738</v>
+        <v>4.867390343614737</v>
       </c>
       <c r="T51" t="n">
         <v>0.1783316561991826</v>
@@ -4702,16 +4702,16 @@
         <v>10.37194182965122</v>
       </c>
       <c r="V51" t="n">
-        <v>2.678150572350623</v>
+        <v>2.678150572350624</v>
       </c>
       <c r="W51" t="n">
         <v>0.05058868998265905</v>
       </c>
       <c r="X51" t="n">
-        <v>6.085980663357636</v>
+        <v>6.085980663357637</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.5903484555144918</v>
+        <v>0.5903484555144919</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
@@ -4734,13 +4734,13 @@
         <v>-1.111714688038054</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.03536452224858395</v>
+        <v>-0.03536452224858397</v>
       </c>
       <c r="F52" t="n">
         <v>-2.921854724743325</v>
       </c>
       <c r="G52" t="n">
-        <v>1.053649500251051</v>
+        <v>1.053649500251052</v>
       </c>
       <c r="H52" t="n">
         <v>0.09423875906343157</v>
@@ -4770,10 +4770,10 @@
         <v>8.09286660978711</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.4193614690397898</v>
+        <v>0.4193614690397899</v>
       </c>
       <c r="R52" t="n">
-        <v>17.82580532891238</v>
+        <v>17.82580532891237</v>
       </c>
       <c r="S52" t="n">
         <v>4.087217776460816</v>
@@ -4841,7 +4841,7 @@
         <v>16.14997547032935</v>
       </c>
       <c r="M53" t="n">
-        <v>1.427297098861448</v>
+        <v>1.427297098861449</v>
       </c>
       <c r="N53" t="n">
         <v>0.009691363089390836</v>
@@ -4853,16 +4853,16 @@
         <v>0.9286670235201981</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.04386843787713274</v>
+        <v>-0.04386843787713277</v>
       </c>
       <c r="R53" t="n">
-        <v>3.035880892852999</v>
+        <v>3.035880892853004</v>
       </c>
       <c r="S53" t="n">
         <v>0.9860168811361536</v>
       </c>
       <c r="T53" t="n">
-        <v>-0.008626348111704291</v>
+        <v>-0.008626348111704318</v>
       </c>
       <c r="U53" t="n">
         <v>2.682576074444988</v>
@@ -4871,7 +4871,7 @@
         <v>0.6475770052934902</v>
       </c>
       <c r="W53" t="n">
-        <v>-0.006154249243034881</v>
+        <v>-0.006154249243034888</v>
       </c>
       <c r="X53" t="n">
         <v>1.830000425471748</v>
@@ -4906,25 +4906,25 @@
         <v>2.804058674201387</v>
       </c>
       <c r="G54" t="n">
-        <v>2.663717876026501</v>
+        <v>2.6637178760265</v>
       </c>
       <c r="H54" t="n">
-        <v>0.09699872426149381</v>
+        <v>0.09699872426149383</v>
       </c>
       <c r="I54" t="n">
-        <v>6.141720878957742</v>
+        <v>6.141720878957743</v>
       </c>
       <c r="J54" t="n">
-        <v>2.127168000438617</v>
+        <v>2.127168000438618</v>
       </c>
       <c r="K54" t="n">
         <v>0.06991759724187985</v>
       </c>
       <c r="L54" t="n">
-        <v>4.439255715285508</v>
+        <v>4.43925571528551</v>
       </c>
       <c r="M54" t="n">
-        <v>0.7080548512885798</v>
+        <v>0.7080548512885816</v>
       </c>
       <c r="N54" t="n">
         <v>-0.01394238219054422</v>
@@ -4939,13 +4939,13 @@
         <v>0.06794645441381897</v>
       </c>
       <c r="R54" t="n">
-        <v>5.203578745533086</v>
+        <v>5.203578745533089</v>
       </c>
       <c r="S54" t="n">
         <v>2.585457678878589</v>
       </c>
       <c r="T54" t="n">
-        <v>0.07748677501274638</v>
+        <v>0.07748677501274637</v>
       </c>
       <c r="U54" t="n">
         <v>5.515811043279833</v>
@@ -4960,7 +4960,7 @@
         <v>3.853158163575491</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.4087147637525262</v>
+        <v>0.4087147637525264</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>8.849148009254275</v>
       </c>
       <c r="J55" t="n">
-        <v>3.502318365167567</v>
+        <v>3.502318365167568</v>
       </c>
       <c r="K55" t="n">
         <v>0.1584546164681032</v>
@@ -5007,7 +5007,7 @@
         <v>7.590263654547839</v>
       </c>
       <c r="M55" t="n">
-        <v>1.86878608356867</v>
+        <v>1.868786083568671</v>
       </c>
       <c r="N55" t="n">
         <v>0.05294045712225431</v>
@@ -5022,13 +5022,13 @@
         <v>0.08265352103558324</v>
       </c>
       <c r="R55" t="n">
-        <v>5.898776174729063</v>
+        <v>5.898776174729065</v>
       </c>
       <c r="S55" t="n">
         <v>2.452172337600678</v>
       </c>
       <c r="T55" t="n">
-        <v>0.07314540007492268</v>
+        <v>0.07314540007492266</v>
       </c>
       <c r="U55" t="n">
         <v>5.424185388368146</v>
@@ -5043,7 +5043,7 @@
         <v>3.585467497435458</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.3587573353489014</v>
+        <v>0.3587573353489015</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>3.202651385624494</v>
       </c>
       <c r="G56" t="n">
-        <v>5.577280577925753</v>
+        <v>5.577280577925752</v>
       </c>
       <c r="H56" t="n">
         <v>0.357821845535484</v>
@@ -5108,7 +5108,7 @@
         <v>13.61694580651044</v>
       </c>
       <c r="S56" t="n">
-        <v>2.965790924606284</v>
+        <v>2.965790924606285</v>
       </c>
       <c r="T56" t="n">
         <v>0.1169720044575299</v>
@@ -5209,7 +5209,7 @@
         <v>3.688498538696062</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.1985943570365258</v>
+        <v>0.1985943570365257</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
@@ -5235,7 +5235,7 @@
         <v>0.1059319632018867</v>
       </c>
       <c r="F58" t="n">
-        <v>8.324275138846293</v>
+        <v>8.324275138846295</v>
       </c>
       <c r="G58" t="n">
         <v>5.806522035233548</v>
@@ -5247,7 +5247,7 @@
         <v>13.11287604177614</v>
       </c>
       <c r="J58" t="n">
-        <v>4.021257919603519</v>
+        <v>4.02125791960352</v>
       </c>
       <c r="K58" t="n">
         <v>0.1635224922873856</v>
@@ -5256,28 +5256,28 @@
         <v>8.553537313714113</v>
       </c>
       <c r="M58" t="n">
-        <v>0.4618482021446253</v>
+        <v>0.4618482021446271</v>
       </c>
       <c r="N58" t="n">
         <v>-0.03941858888620547</v>
       </c>
       <c r="O58" t="n">
-        <v>0.9931123764289467</v>
+        <v>0.9931123764289449</v>
       </c>
       <c r="P58" t="n">
         <v>1.472240110294909</v>
       </c>
       <c r="Q58" t="n">
-        <v>-0.0001844819842494183</v>
+        <v>-0.0001844819842494461</v>
       </c>
       <c r="R58" t="n">
-        <v>3.766577277361794</v>
+        <v>3.766577277361798</v>
       </c>
       <c r="S58" t="n">
         <v>1.842610210389555</v>
       </c>
       <c r="T58" t="n">
-        <v>0.03282314129980599</v>
+        <v>0.03282314129980596</v>
       </c>
       <c r="U58" t="n">
         <v>4.123290951165906</v>
@@ -5286,7 +5286,7 @@
         <v>1.247395244786972</v>
       </c>
       <c r="W58" t="n">
-        <v>0.009334337464094759</v>
+        <v>0.009334337464094754</v>
       </c>
       <c r="X58" t="n">
         <v>2.95814554596154</v>
@@ -5321,7 +5321,7 @@
         <v>3.714711899904489</v>
       </c>
       <c r="G59" t="n">
-        <v>3.919447325733138</v>
+        <v>3.919447325733139</v>
       </c>
       <c r="H59" t="n">
         <v>0.2492739930955631</v>
@@ -5330,7 +5330,7 @@
         <v>9.183343899162978</v>
       </c>
       <c r="J59" t="n">
-        <v>6.977860544309236</v>
+        <v>6.977860544309235</v>
       </c>
       <c r="K59" t="n">
         <v>0.3687428260659497</v>
@@ -5342,7 +5342,7 @@
         <v>9.020040894052997</v>
       </c>
       <c r="N59" t="n">
-        <v>0.4589699902396134</v>
+        <v>0.4589699902396133</v>
       </c>
       <c r="O59" t="n">
         <v>20.83159047355815</v>
@@ -5354,13 +5354,13 @@
         <v>0.248718310261781</v>
       </c>
       <c r="R59" t="n">
-        <v>12.87731775944839</v>
+        <v>12.87731775944838</v>
       </c>
       <c r="S59" t="n">
         <v>3.020918343830024</v>
       </c>
       <c r="T59" t="n">
-        <v>0.09109130243833832</v>
+        <v>0.09109130243833834</v>
       </c>
       <c r="U59" t="n">
         <v>7.398886421297695</v>
@@ -5404,7 +5404,7 @@
         <v>5.637848350635988</v>
       </c>
       <c r="G60" t="n">
-        <v>4.985290694234846</v>
+        <v>4.985290694234844</v>
       </c>
       <c r="H60" t="n">
         <v>0.2318112414711744</v>
@@ -5413,7 +5413,7 @@
         <v>11.38947719459645</v>
       </c>
       <c r="J60" t="n">
-        <v>3.139697640325683</v>
+        <v>3.139697640325685</v>
       </c>
       <c r="K60" t="n">
         <v>0.1418475308954034</v>
@@ -5422,7 +5422,7 @@
         <v>6.395975231224698</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.5461100893934034</v>
+        <v>-0.5461100893934017</v>
       </c>
       <c r="N60" t="n">
         <v>-0.08319147012362671</v>
@@ -5434,16 +5434,16 @@
         <v>1.279046607710899</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.01432819304424865</v>
+        <v>0.01432819304424862</v>
       </c>
       <c r="R60" t="n">
-        <v>3.104702811565376</v>
+        <v>3.104702811565381</v>
       </c>
       <c r="S60" t="n">
-        <v>2.034513993208095</v>
+        <v>2.034513993208094</v>
       </c>
       <c r="T60" t="n">
-        <v>0.05983107395539116</v>
+        <v>0.05983107395539114</v>
       </c>
       <c r="U60" t="n">
         <v>4.345209216991682</v>
@@ -5455,10 +5455,10 @@
         <v>0.02200987011440688</v>
       </c>
       <c r="X60" t="n">
-        <v>3.329510701894145</v>
+        <v>3.329510701894146</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.3666626640999343</v>
+        <v>0.3666626640999344</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
@@ -5487,7 +5487,7 @@
         <v>10.69793776848816</v>
       </c>
       <c r="G61" t="n">
-        <v>9.742367979374492</v>
+        <v>9.742367979374491</v>
       </c>
       <c r="H61" t="n">
         <v>0.6032790881656103</v>
@@ -5505,10 +5505,10 @@
         <v>23.34530335085949</v>
       </c>
       <c r="M61" t="n">
-        <v>7.672442244969122</v>
+        <v>7.672442244969121</v>
       </c>
       <c r="N61" t="n">
-        <v>0.3873546536862468</v>
+        <v>0.3873546536862469</v>
       </c>
       <c r="O61" t="n">
         <v>17.34507446285925</v>
@@ -5520,7 +5520,7 @@
         <v>0.1561888541444046</v>
       </c>
       <c r="R61" t="n">
-        <v>9.374763320708945</v>
+        <v>9.374763320708947</v>
       </c>
       <c r="S61" t="n">
         <v>1.785745631211124</v>
@@ -5532,10 +5532,10 @@
         <v>4.966057113809707</v>
       </c>
       <c r="V61" t="n">
-        <v>0.6717318006709798</v>
+        <v>0.6717318006709799</v>
       </c>
       <c r="W61" t="n">
-        <v>0.007494474051787632</v>
+        <v>0.007494474051787634</v>
       </c>
       <c r="X61" t="n">
         <v>2.247014166735295</v>
@@ -5582,13 +5582,13 @@
         <v>8.319450241163711</v>
       </c>
       <c r="K62" t="n">
-        <v>0.4852474649423007</v>
+        <v>0.4852474649423008</v>
       </c>
       <c r="L62" t="n">
         <v>18.89987313350658</v>
       </c>
       <c r="M62" t="n">
-        <v>7.867724580532389</v>
+        <v>7.867724580532388</v>
       </c>
       <c r="N62" t="n">
         <v>0.405127541023449</v>
@@ -5653,7 +5653,7 @@
         <v>17.27937063635459</v>
       </c>
       <c r="G63" t="n">
-        <v>14.14648449830721</v>
+        <v>14.1464844983072</v>
       </c>
       <c r="H63" t="n">
         <v>0.860820226690354</v>
@@ -5671,7 +5671,7 @@
         <v>26.59644514488926</v>
       </c>
       <c r="M63" t="n">
-        <v>5.06226373644378</v>
+        <v>5.062263736443779</v>
       </c>
       <c r="N63" t="n">
         <v>0.2334498391031637</v>
@@ -5683,16 +5683,16 @@
         <v>1.788673166674597</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.02947250363842244</v>
+        <v>0.02947250363842241</v>
       </c>
       <c r="R63" t="n">
-        <v>5.154796143840487</v>
+        <v>5.154796143840492</v>
       </c>
       <c r="S63" t="n">
         <v>0.6447792988430501</v>
       </c>
       <c r="T63" t="n">
-        <v>0.001016084792586108</v>
+        <v>0.001016084792586081</v>
       </c>
       <c r="U63" t="n">
         <v>2.537991720624014</v>
@@ -5707,7 +5707,7 @@
         <v>1.130602916844223</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.01815334744979424</v>
+        <v>0.01815334744979422</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
@@ -5736,7 +5736,7 @@
         <v>6.094775108134603</v>
       </c>
       <c r="G64" t="n">
-        <v>4.865776135492858</v>
+        <v>4.865776135492857</v>
       </c>
       <c r="H64" t="n">
         <v>0.2257692935238657</v>
@@ -5745,7 +5745,7 @@
         <v>11.06146776689084</v>
       </c>
       <c r="J64" t="n">
-        <v>2.975167611841979</v>
+        <v>2.97516761184198</v>
       </c>
       <c r="K64" t="n">
         <v>0.1195601782839897</v>
@@ -5754,7 +5754,7 @@
         <v>6.064826612300394</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.5970344029740904</v>
+        <v>-0.5970344029740895</v>
       </c>
       <c r="N64" t="n">
         <v>-0.09089478948208579</v>
@@ -5766,16 +5766,16 @@
         <v>1.255677804760702</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.004588279160827879</v>
+        <v>0.004588279160827852</v>
       </c>
       <c r="R64" t="n">
-        <v>3.093595157098857</v>
+        <v>3.093595157098861</v>
       </c>
       <c r="S64" t="n">
         <v>2.014974512694552</v>
       </c>
       <c r="T64" t="n">
-        <v>0.05227555471613734</v>
+        <v>0.05227555471613732</v>
       </c>
       <c r="U64" t="n">
         <v>4.301778346686986</v>
@@ -5787,10 +5787,10 @@
         <v>0.01876440291291833</v>
       </c>
       <c r="X64" t="n">
-        <v>3.294952538629954</v>
+        <v>3.294952538629955</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.3633063408120348</v>
+        <v>0.3633063408120349</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>-1.149281451530249</v>
       </c>
       <c r="G65" t="n">
-        <v>2.113909958733729</v>
+        <v>2.11390995873373</v>
       </c>
       <c r="H65" t="n">
         <v>0.172576871766809</v>
@@ -5831,7 +5831,7 @@
         <v>8.361222107927821</v>
       </c>
       <c r="K65" t="n">
-        <v>0.4911064076570043</v>
+        <v>0.4911064076570042</v>
       </c>
       <c r="L65" t="n">
         <v>19.99402770206228</v>
@@ -5852,7 +5852,7 @@
         <v>0.4243286217781334</v>
       </c>
       <c r="R65" t="n">
-        <v>18.50989510364184</v>
+        <v>18.50989510364183</v>
       </c>
       <c r="S65" t="n">
         <v>3.934392954669362</v>
@@ -5873,13 +5873,13 @@
         <v>4.212146000377407</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.2406464566891177</v>
+        <v>0.2406464566891176</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.9234057676442176</v>
+        <v>0.9234057676442177</v>
       </c>
     </row>
     <row r="66">
@@ -5902,7 +5902,7 @@
         <v>10.90043441349383</v>
       </c>
       <c r="G66" t="n">
-        <v>9.704390763133507</v>
+        <v>9.704390763133503</v>
       </c>
       <c r="H66" t="n">
         <v>0.5693314840739188</v>
@@ -5911,7 +5911,7 @@
         <v>22.21918571578258</v>
       </c>
       <c r="J66" t="n">
-        <v>8.640299099241483</v>
+        <v>8.640299099241485</v>
       </c>
       <c r="K66" t="n">
         <v>0.4959956078002971</v>
@@ -5923,7 +5923,7 @@
         <v>4.096814839726958</v>
       </c>
       <c r="N66" t="n">
-        <v>0.1843398871275673</v>
+        <v>0.1843398871275674</v>
       </c>
       <c r="O66" t="n">
         <v>8.943761405255819</v>
@@ -5932,16 +5932,16 @@
         <v>2.332246253449309</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.07315645953130576</v>
+        <v>0.07315645953130573</v>
       </c>
       <c r="R66" t="n">
-        <v>5.885492528349282</v>
+        <v>5.885492528349286</v>
       </c>
       <c r="S66" t="n">
         <v>1.501372628096452</v>
       </c>
       <c r="T66" t="n">
-        <v>0.04246557420409637</v>
+        <v>0.04246557420409636</v>
       </c>
       <c r="U66" t="n">
         <v>3.978706597344932</v>
@@ -6003,7 +6003,7 @@
         <v>16.38099023448622</v>
       </c>
       <c r="M67" t="n">
-        <v>5.249131153247566</v>
+        <v>5.249131153247567</v>
       </c>
       <c r="N67" t="n">
         <v>0.2381823363437316</v>
@@ -6018,13 +6018,13 @@
         <v>0.1072948931340345</v>
       </c>
       <c r="R67" t="n">
-        <v>7.962153153383953</v>
+        <v>7.962153153383955</v>
       </c>
       <c r="S67" t="n">
         <v>2.01323735273986</v>
       </c>
       <c r="T67" t="n">
-        <v>0.04501023678294394</v>
+        <v>0.04501023678294393</v>
       </c>
       <c r="U67" t="n">
         <v>5.06244668302369</v>
@@ -6033,7 +6033,7 @@
         <v>0.9847827995970563</v>
       </c>
       <c r="W67" t="n">
-        <v>0.006881801740503481</v>
+        <v>0.006881801740503478</v>
       </c>
       <c r="X67" t="n">
         <v>2.713279172486978</v>
@@ -6068,7 +6068,7 @@
         <v>-0.08486475901459745</v>
       </c>
       <c r="G68" t="n">
-        <v>1.880463751268784</v>
+        <v>1.880463751268783</v>
       </c>
       <c r="H68" t="n">
         <v>0.06469211154442547</v>
@@ -6077,7 +6077,7 @@
         <v>4.585419976732407</v>
       </c>
       <c r="J68" t="n">
-        <v>2.983378810731615</v>
+        <v>2.983378810731617</v>
       </c>
       <c r="K68" t="n">
         <v>0.1533867406488208</v>
@@ -6086,10 +6086,10 @@
         <v>6.626989995381566</v>
       </c>
       <c r="M68" t="n">
-        <v>3.275723964992715</v>
+        <v>3.275723964992716</v>
       </c>
       <c r="N68" t="n">
-        <v>0.145299503130714</v>
+        <v>0.1452995031307141</v>
       </c>
       <c r="O68" t="n">
         <v>7.064816340273641</v>
@@ -6101,7 +6101,7 @@
         <v>0.1654915240554159</v>
       </c>
       <c r="R68" t="n">
-        <v>8.03097507209633</v>
+        <v>8.030975072096332</v>
       </c>
       <c r="S68" t="n">
         <v>3.061734464811801</v>
@@ -6116,13 +6116,13 @@
         <v>1.794328663465713</v>
       </c>
       <c r="W68" t="n">
-        <v>0.03504592109794524</v>
+        <v>0.03504592109794525</v>
       </c>
       <c r="X68" t="n">
         <v>4.212789448909376</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.4108784048651916</v>
+        <v>0.4108784048651917</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
@@ -6196,16 +6196,16 @@
         <v>6.040269370883874</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5922459174001713</v>
+        <v>0.5922459174001714</v>
       </c>
       <c r="W69" t="n">
-        <v>0.01122653657553137</v>
+        <v>0.01122653657553138</v>
       </c>
       <c r="X69" t="n">
         <v>2.304396622664957</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.05782008275191811</v>
+        <v>0.05782008275191802</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
@@ -6234,25 +6234,25 @@
         <v>-1.547874162953356</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7996527431655229</v>
+        <v>-0.799652743165522</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.08824624950718118</v>
+        <v>-0.08824624950718124</v>
       </c>
       <c r="I70" t="n">
         <v>-1.646364622023146</v>
       </c>
       <c r="J70" t="n">
-        <v>1.477259085393435</v>
+        <v>1.477259085393436</v>
       </c>
       <c r="K70" t="n">
-        <v>0.01459474916105602</v>
+        <v>0.01459474916105608</v>
       </c>
       <c r="L70" t="n">
-        <v>3.676824622669459</v>
+        <v>3.676824622669461</v>
       </c>
       <c r="M70" t="n">
-        <v>4.377115964932637</v>
+        <v>4.377115964932638</v>
       </c>
       <c r="N70" t="n">
         <v>0.1914386329884193</v>
@@ -6270,7 +6270,7 @@
         <v>10.09652804266448</v>
       </c>
       <c r="S70" t="n">
-        <v>3.554059708941667</v>
+        <v>3.554059708941666</v>
       </c>
       <c r="T70" t="n">
         <v>0.1084568021896331</v>
@@ -6282,13 +6282,13 @@
         <v>1.987992185436878</v>
       </c>
       <c r="W70" t="n">
-        <v>0.02842890970593919</v>
+        <v>0.02842890970593918</v>
       </c>
       <c r="X70" t="n">
         <v>4.632762420798149</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.4428615346540853</v>
+        <v>0.4428615346540854</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
@@ -6317,7 +6317,7 @@
         <v>-6.411867514388094</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.605190110164932</v>
+        <v>-2.605190110164931</v>
       </c>
       <c r="H71" t="n">
         <v>-0.1649433708359354</v>
@@ -6326,13 +6326,13 @@
         <v>-5.414985281885048</v>
       </c>
       <c r="J71" t="n">
-        <v>2.860620649012021</v>
+        <v>2.860620649012022</v>
       </c>
       <c r="K71" t="n">
         <v>0.1369583307521106</v>
       </c>
       <c r="L71" t="n">
-        <v>7.38999594501296</v>
+        <v>7.389995945012963</v>
       </c>
       <c r="M71" t="n">
         <v>9.410605565179534</v>
@@ -6353,7 +6353,7 @@
         <v>15.72910538685793</v>
       </c>
       <c r="S71" t="n">
-        <v>4.467534319781006</v>
+        <v>4.467534319781005</v>
       </c>
       <c r="T71" t="n">
         <v>0.1653075313857115</v>
@@ -6394,7 +6394,7 @@
         <v>-0.0619633218133786</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.0130175846082408</v>
+        <v>-0.01301758460824079</v>
       </c>
       <c r="F72" t="n">
         <v>-0.2873614040202765</v>
@@ -6409,7 +6409,7 @@
         <v>4.752517921686759</v>
       </c>
       <c r="J72" t="n">
-        <v>4.721149900302449</v>
+        <v>4.72114990030245</v>
       </c>
       <c r="K72" t="n">
         <v>0.2585308454477441</v>
